--- a/EOS Builder.xlsx
+++ b/EOS Builder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santos-my.sharepoint.com/personal/burmr_santos_com/Documents/Work in progress/Python/0-ResEng/Z-Factors/Inerts5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{AA740A47-1034-4526-A368-2B11E5735254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96310396-A332-4F93-B73F-8015F76BE31A}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="8_{AA740A47-1034-4526-A368-2B11E5735254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC5FA42-C488-4B90-A0CA-4DDC334FEFD8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{1D675120-AB69-4B00-B6AF-989798846ECB}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,16 +421,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,10 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,42 +457,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -842,7 +837,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +857,7 @@
       </c>
       <c r="B1" t="str">
         <f>IF(CONCATENATE(R2,R3, R4)="","All Good", CONCATENATE(R2,R3, R4))</f>
-        <v xml:space="preserve"> Warning: Inert mole fractions leaves no hydrocarbons. Hydrocarbon properties have been defaulted to SG=0.7</v>
+        <v>All Good</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>34</v>
@@ -873,7 +868,7 @@
       <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="2"/>
@@ -896,20 +891,20 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="5" t="str">
-        <f>IF(L6&gt;16.043,""," Error: Gas SG is too low for inert mole fractions specified.")</f>
+        <f>IF(L6&gt;16.043,"",CONCATENATE(" Error: Gas SG is too low for inert mole fractions specified. Needs to be at least ",ROUND((16.043*(1-C6-D6-E6-F6)+(C6*H6+D6*I6+E6*J6+F6*K6))/mwAir,4)," for methane non-inert"))</f>
         <v/>
       </c>
       <c r="S3" s="2"/>
@@ -921,21 +916,21 @@
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="21" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="22"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="18"/>
       <c r="O4" s="2" t="s">
         <v>37</v>
       </c>
@@ -946,49 +941,49 @@
         <v>39</v>
       </c>
       <c r="R4" s="5" t="str">
-        <f>IF(SUM(C6:F6)&gt;=1," Warning: Inert mole fractions leaves no hydrocarbons. Hydrocarbon properties have been defaulted to SG=0.7","")</f>
-        <v xml:space="preserve"> Warning: Inert mole fractions leaves no hydrocarbons. Hydrocarbon properties have been defaulted to SG=0.7</v>
+        <f>IF(SUM(C6:F6)&gt;=1," Warning: Inert mole fractions leaves no hydrocarbons. Hydrocarbon properties have been defaulted to SG=0.65","")</f>
+        <v/>
       </c>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="6">
@@ -1004,45 +999,45 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>120</v>
       </c>
-      <c r="B6" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="47">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="B6" s="14">
+        <v>1.51</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <f>1-SUM(C6:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H6" s="19">
         <v>44.01</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="20">
         <v>34.082000000000001</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="20">
         <v>28.013999999999999</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="20">
         <v>2.016</v>
       </c>
-      <c r="L6" s="18">
-        <f xml:space="preserve"> IF(G6&lt;=0,0.7*mwAir,(B6*mwAir - (C6 * H6 + D6 * I6 + E6 * J6 + F6 * K6)) / (1 - C6 - D6 - E6 - F6))</f>
-        <v>20.278999999999996</v>
-      </c>
-      <c r="M6" s="25">
+      <c r="L6" s="16">
+        <f xml:space="preserve"> IF(G6&lt;=0,0.65*mwAir,(B6*mwAir - (C6 * H6 + D6 * I6 + E6 * J6 + F6 * K6)) / (1 - C6 - D6 - E6 - F6))</f>
+        <v>17.480000000000459</v>
+      </c>
+      <c r="M6" s="21">
         <f>A6+459.67</f>
         <v>579.67000000000007</v>
       </c>
@@ -1061,12 +1056,12 @@
       <c r="F7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="7">
         <f>O5 * hcMW ^ 2 + P5 * hcMW + Q5</f>
-        <v>1.949283904827054</v>
+        <v>1.7818576886091906</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1086,7 +1081,7 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="5">
@@ -1103,22 +1098,22 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="17" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="5">
@@ -1135,20 +1130,20 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="A10" s="22"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="23"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="5">
@@ -1165,38 +1160,38 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P11" s="5">
@@ -1207,35 +1202,35 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="27">
         <f t="array" ref="B12:B16">TRANSPOSE(H6:L6)</f>
         <v>44.01</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="27">
         <v>547.41600000000005</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="27">
         <v>1069.51</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="28">
         <v>0.12256</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="28">
         <v>-0.27593000000000001</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12">
         <v>0.427705</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12">
         <v>6.9646E-2</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="29">
         <v>1.4355599999999999</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="17" t="s">
         <v>44</v>
       </c>
       <c r="P12" s="5">
@@ -1246,31 +1241,31 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="27">
         <v>34.082000000000001</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="27">
         <v>672.12</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="27">
         <v>1299.97</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="28">
         <v>4.9160000000000002E-2</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="28">
         <v>-0.22896</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13">
         <v>0.43674299999999999</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13">
         <v>7.2437299999999996E-2</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="29">
         <v>1.45055</v>
       </c>
       <c r="J13" s="3"/>
@@ -1279,322 +1274,294 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="27">
         <v>28.013999999999999</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="27">
         <v>227.16</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="27">
         <v>492.84</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="28">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="28">
         <v>-0.21065999999999999</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14">
         <v>0.45723599999999998</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14">
         <v>7.7796100000000007E-2</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="29">
         <v>1.3355999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="27">
         <v>2.016</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="27">
         <v>47.43</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="27">
         <v>187.53</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="28">
         <v>-0.217</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="28">
         <v>-0.32400000000000001</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15">
         <v>0.45723599999999998</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15">
         <v>7.7796100000000007E-2</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="29">
         <v>0.75785999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38">
-        <v>20.278999999999996</v>
-      </c>
-      <c r="C16" s="38">
+      <c r="B16" s="30">
+        <v>17.480000000000459</v>
+      </c>
+      <c r="C16" s="30">
         <f xml:space="preserve"> (hcMW + O2)*Q2 / (hcMW + O2 + P2)</f>
-        <v>388.55453605426652</v>
-      </c>
-      <c r="D16" s="38">
+        <v>358.66279455292255</v>
+      </c>
+      <c r="D16" s="30">
         <f>0.3074*gasR*C16/P7</f>
-        <v>657.57349444751139</v>
-      </c>
-      <c r="E16" s="39">
+        <v>664.01933507267472</v>
+      </c>
+      <c r="E16" s="31">
         <v>-3.8989999999999997E-2</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="31">
         <v>-0.19076000000000001</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16">
         <v>0.45723599999999998</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16">
         <v>7.7796100000000007E-2</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="32">
         <f>0.0577172 * hcMW + 0.480478182</f>
-        <v>1.6509252807999997</v>
+        <v>1.4893748380000265</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="27"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="23"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="28">
         <v>5.7079999999999999E-2</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="28">
         <v>-0.22062999999999999</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="28">
         <v>0.64810000000000001</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="33">
         <f t="array" ref="F19:F22">TRANSPOSE(B23:E23)</f>
-        <v>7.0256579555511789E-2</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+        <v>7.7987557505510507E-2</v>
+      </c>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="28">
         <v>5.7079999999999999E-2</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="28">
         <v>-0.19505</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="28">
         <v>0.65</v>
       </c>
-      <c r="F20" s="41">
-        <v>8.6425858270126471E-2</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="F20" s="33">
+        <v>9.8786410210124437E-2</v>
+      </c>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="28">
         <v>-0.22062999999999999</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="28">
         <v>-0.19505</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="28">
         <v>0.36917</v>
       </c>
-      <c r="F21" s="41">
-        <v>3.6734981337559869E-2</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="F21" s="33">
+        <v>4.898113814755789E-2</v>
+      </c>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="28">
         <v>0.64810000000000001</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="28">
         <v>0.65</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="28">
         <v>0.36917</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="41">
-        <v>0.17713442528734835</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="33">
+        <v>0.15239115332735242</v>
+      </c>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="33">
         <f>P8+P9*hcMW+P10/degR</f>
-        <v>7.0256579555511789E-2</v>
-      </c>
-      <c r="C23" s="41">
+        <v>7.7987557505510507E-2</v>
+      </c>
+      <c r="C23" s="33">
         <f>Q8+Q9*hcMW+Q10/degR</f>
-        <v>8.6425858270126471E-2</v>
-      </c>
-      <c r="D23" s="41">
+        <v>9.8786410210124437E-2</v>
+      </c>
+      <c r="D23" s="33">
         <f>R8+R9*hcMW+R10/degR</f>
-        <v>3.6734981337559869E-2</v>
-      </c>
-      <c r="E23" s="41">
+        <v>4.898113814755789E-2</v>
+      </c>
+      <c r="E23" s="33">
         <f>S8+S9*hcMW+S10/degR</f>
-        <v>0.17713442528734835</v>
-      </c>
-      <c r="F23" s="30">
+        <v>0.15239115332735242</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="A24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="45">
+      <c r="A27" s="37">
         <v>0.1023</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="34">
         <v>2.3363999999999999E-2</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="34">
         <v>5.8533000000000002E-2</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="36">
         <v>-3.8817699999999997E-2</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="36">
         <v>9.1386799999999997E-3</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="34">
         <v>0.1</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
